--- a/Git_command.xlsx
+++ b/Git_command.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28516"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_repos\Online_retail_analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055A3A64-71F8-47D0-92D2-555554230DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Git command" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,11 +24,42 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Example </t>
+  </si>
+  <si>
+    <t>Touch</t>
+  </si>
+  <si>
+    <t>Use to create a new file in the file directory</t>
+  </si>
+  <si>
+    <t>Touch (file name)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -49,8 +86,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +368,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B2:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Git_command.xlsx
+++ b/Git_command.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_repos\Online_retail_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055A3A64-71F8-47D0-92D2-555554230DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E3A7A4-8A8B-45F6-A37A-1C066A1CD694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Command</t>
   </si>
@@ -43,6 +43,42 @@
   </si>
   <si>
     <t>Touch (file name)</t>
+  </si>
+  <si>
+    <t>git add</t>
+  </si>
+  <si>
+    <t>git add (file name)</t>
+  </si>
+  <si>
+    <t>git add .</t>
+  </si>
+  <si>
+    <t>adds a specific file in the staging area.</t>
+  </si>
+  <si>
+    <t>adds all modified files in the staging area.</t>
+  </si>
+  <si>
+    <t>git clone</t>
+  </si>
+  <si>
+    <t>copies (clone) an existing repository from a remote source</t>
+  </si>
+  <si>
+    <t>git clone (url)</t>
+  </si>
+  <si>
+    <t>git init</t>
+  </si>
+  <si>
+    <t>Initializes a new Git repository in a folder</t>
+  </si>
+  <si>
+    <t>git status</t>
+  </si>
+  <si>
+    <t>Shows the current state of the working directory and the staging area</t>
   </si>
 </sst>
 </file>
@@ -370,17 +406,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:D3"/>
+  <dimension ref="B2:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="18" x14ac:dyDescent="0.35">
@@ -405,6 +441,61 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Git_command.xlsx
+++ b/Git_command.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_repos\Online_retail_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E3A7A4-8A8B-45F6-A37A-1C066A1CD694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094893D2-5656-4386-87E4-F9D84A5F9595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="12480" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Git command" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Command</t>
   </si>
@@ -79,6 +79,63 @@
   </si>
   <si>
     <t>Shows the current state of the working directory and the staging area</t>
+  </si>
+  <si>
+    <t>git commit -m</t>
+  </si>
+  <si>
+    <t>Save the staged changes with a commit message</t>
+  </si>
+  <si>
+    <t>git commit -m "message"</t>
+  </si>
+  <si>
+    <t>git log</t>
+  </si>
+  <si>
+    <t>Displays a log of all commits in the repository.</t>
+  </si>
+  <si>
+    <t>git log --all</t>
+  </si>
+  <si>
+    <t>git branch</t>
+  </si>
+  <si>
+    <t>List all branches in the repository</t>
+  </si>
+  <si>
+    <t>Creates a new branch</t>
+  </si>
+  <si>
+    <t>git branch (branch name)</t>
+  </si>
+  <si>
+    <t>git checkout -b</t>
+  </si>
+  <si>
+    <t>Creates and switches to a new branch</t>
+  </si>
+  <si>
+    <t>git checkout -b (branch name)</t>
+  </si>
+  <si>
+    <t>git merge</t>
+  </si>
+  <si>
+    <t>Merges another branch into the current branch</t>
+  </si>
+  <si>
+    <t>git merge (branch name)</t>
+  </si>
+  <si>
+    <t>git pull origin</t>
+  </si>
+  <si>
+    <t>Fetches and merges the latest changes from a remote repository</t>
+  </si>
+  <si>
+    <t>git pull origin (banch)</t>
   </si>
 </sst>
 </file>
@@ -406,10 +463,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,6 +553,83 @@
         <v>16</v>
       </c>
     </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
